--- a/medicine/Enfance/Shaïne_Cassim/Shaïne_Cassim.xlsx
+++ b/medicine/Enfance/Shaïne_Cassim/Shaïne_Cassim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sha%C3%AFne_Cassim</t>
+          <t>Shaïne_Cassim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shaïne Cassim, née le 26 septembre 1966 à Tananarive, est une femme de lettres française spécialisée dans la littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sha%C3%AFne_Cassim</t>
+          <t>Shaïne_Cassim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Native de Madagascar[1], elle arrive en France à l'âge de sept ans[2]. Elle fait des études de lettres[2].
-Ses études terminées, elle conçoit des livres pour enfants puis en 2002, elle publie son premier roman Qui a tué Héloïse Van Hool ?[3].
-En 2006, Shaïne Cassim prend la direction de la collection Wiz chez Albin Michel[4], puis en 2016, elle rejoint Casterman[5].
-Elle est aussi traductrice depuis l'anglais. Elle a d'abord traduit des romans pour la jeunesse[2],[6], mais aussi Le Vice de la lecture d'Edith Wharton[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Native de Madagascar, elle arrive en France à l'âge de sept ans. Elle fait des études de lettres.
+Ses études terminées, elle conçoit des livres pour enfants puis en 2002, elle publie son premier roman Qui a tué Héloïse Van Hool ?.
+En 2006, Shaïne Cassim prend la direction de la collection Wiz chez Albin Michel, puis en 2016, elle rejoint Casterman.
+Elle est aussi traductrice depuis l'anglais. Elle a d'abord traduit des romans pour la jeunesse mais aussi Le Vice de la lecture d'Edith Wharton.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sha%C3%AFne_Cassim</t>
+          <t>Shaïne_Cassim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Je voudrais être heureux, Hachette Jeunesse, 1997
 Achille aime Joséphine qui aime Paul (qui n'aime personne), Hachette Jeunesse Vertige "Coup de foudre", 1998
@@ -559,13 +575,13 @@
 Lili dans la lune, Grasset &amp; Fasquelle "Lampe de poche", 2003
 Le Quinze de la Rose, Pocket Jeunesse, 2004
 Toi + Moi, tome 35 : Ne pas tout dire, Pocket Jeunesse, 2004
-C'est tout de suite le soir [8], Pocket Jeunesse, 2006
+C'est tout de suite le soir , Pocket Jeunesse, 2006
 Deux sœurs en décembre, Thierry Magnier, 2006
 Sa Seigneurie, Flammarion "Tribal", 2010
-Je ne suis pas Eugénie Grandet[9], L'École des loisirs "Médium", 2011
+Je ne suis pas Eugénie Grandet, L'École des loisirs "Médium", 2011
 Jolene, L'École des loisirs "Médium", 2012
-Une saison avec Jane-Esther[10],[11], L'École des loisirs "Médium", 2013
-Camarades[12], L'École des loisirs "Médium", 2016
+Une saison avec Jane-Esther L'École des loisirs "Médium", 2013
+Camarades, L'École des loisirs "Médium", 2016
 Qu'est-ce qu'on fout ici Gallimard, 2023</t>
         </is>
       </c>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sha%C3%AFne_Cassim</t>
+          <t>Shaïne_Cassim</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Goya du premier roman 2002 pour Qui a tué Héloïse Van Hool</t>
         </is>
